--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melkkri/Library/Application Support/Microsoft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE7315-D5A6-1D4E-9C1F-7F0CF3F68B12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1500" windowWidth="38400" windowHeight="20000" activeTab="2" xr2:uid="{A52B168E-671C-B54E-AC15-65F93262E030}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11835" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,14 @@
     <sheet name="Netting - Order" sheetId="6" r:id="rId3"/>
     <sheet name="Netting" sheetId="3" r:id="rId4"/>
     <sheet name="Planning" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
+    <sheet name="Netting - Talon" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="Target Qty Approach" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planning!$E$2:$E$19</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="226">
   <si>
     <t>D2D</t>
   </si>
@@ -547,12 +548,290 @@
   <si>
     <t>Amend crosses fill (overfill so netting failure)</t>
   </si>
+  <si>
+    <t>CalcCycle1</t>
+  </si>
+  <si>
+    <t>CalcCycle2</t>
+  </si>
+  <si>
+    <t>CalcCycle3</t>
+  </si>
+  <si>
+    <t>CalcCycle4</t>
+  </si>
+  <si>
+    <t>CalcCycle5</t>
+  </si>
+  <si>
+    <t>CalcCycle6</t>
+  </si>
+  <si>
+    <t>OrderRequests</t>
+  </si>
+  <si>
+    <t>10 SELL</t>
+  </si>
+  <si>
+    <t>15 BUY</t>
+  </si>
+  <si>
+    <t>Total: 10, Filled: 0, Leaves: 10, SELL</t>
+  </si>
+  <si>
+    <t>Total: 10, Filled: 0, Leaves: 0, SELL, DONE</t>
+  </si>
+  <si>
+    <t>Total: 10, Filled: 0, Leaves: 0, SELL, DONE
+Total: 5, Filled: 0, Leaves: 5, BUY</t>
+  </si>
+  <si>
+    <t>ParentOrderState</t>
+  </si>
+  <si>
+    <t>Total: 5, Filled: 0, Leaves: 5, BUY</t>
+  </si>
+  <si>
+    <t>Total: 0, Filled: 0, Leaves: 0</t>
+  </si>
+  <si>
+    <t>10 SELL,5 BUY</t>
+  </si>
+  <si>
+    <t>5 SELL</t>
+  </si>
+  <si>
+    <t>Current Netting Order</t>
+  </si>
+  <si>
+    <t>CalcCycle7</t>
+  </si>
+  <si>
+    <t>Total: 5, Filled: 0, Leaves: 0, BUY, DONE</t>
+  </si>
+  <si>
+    <t>CalcCycle8</t>
+  </si>
+  <si>
+    <t>10 BUY</t>
+  </si>
+  <si>
+    <t>CalcCycle9</t>
+  </si>
+  <si>
+    <t>Total: 10, Filled: 0, Leaves: 10, BUY</t>
+  </si>
+  <si>
+    <t>CalcCycle10</t>
+  </si>
+  <si>
+    <t>20 SELL</t>
+  </si>
+  <si>
+    <t>CalcCycle11</t>
+  </si>
+  <si>
+    <t>5 BUY</t>
+  </si>
+  <si>
+    <t>15 SELL</t>
+  </si>
+  <si>
+    <t>CalcCycle12</t>
+  </si>
+  <si>
+    <t>Total: 10, Filled: 5, Leaves: 0, BUY, DONE</t>
+  </si>
+  <si>
+    <t>Total: 10, Filled: 0, Leaves:10, SELL</t>
+  </si>
+  <si>
+    <t>* Per Symbol</t>
+  </si>
+  <si>
+    <t>NETTED(CYCLEID: 1 , 10 SELL)</t>
+  </si>
+  <si>
+    <t>NETTING(CYCLEID: 1 , 10 SELL, NOS 10 SELL)</t>
+  </si>
+  <si>
+    <t>NETTING (CYCLEID: 2, 15 BUY, CXL 10 SELL)</t>
+  </si>
+  <si>
+    <t>NETTING(CYCLEID: 2, 15 BUY, NOS 5 BUY)</t>
+  </si>
+  <si>
+    <t>NETTED (CYCLEID: 2, 15 BUY)</t>
+  </si>
+  <si>
+    <t>NETTING (CYCLEID: 3,  5 SELL, 5 CXL BUY)</t>
+  </si>
+  <si>
+    <t>NETTED(CYCLEID: 3, 5 SELL)</t>
+  </si>
+  <si>
+    <t>NETTING (CYCLEID: 4, 10 BUY, NOS 10 BUY)</t>
+  </si>
+  <si>
+    <t>NETTED (CYCLEID: 4, 10 BUY)</t>
+  </si>
+  <si>
+    <t>NETTING(CYCLEID: 5, 20 SELL, CXL 10 BUY)</t>
+  </si>
+  <si>
+    <t>NETTING(CYCLEID: 5, 15 SELL, NOS 10 SELL)</t>
+  </si>
+  <si>
+    <t>NETTED (CYCLEID: 5, 15 SELL)</t>
+  </si>
+  <si>
+    <t>CalcCycle13</t>
+  </si>
+  <si>
+    <t>CurrentChildOrderState for Netting Cycle</t>
+  </si>
+  <si>
+    <t>NETTING (CYCLEID: 6, 5 SELL, OCRR 10-&gt;15 SELL)</t>
+  </si>
+  <si>
+    <t>CalcCycle14</t>
+  </si>
+  <si>
+    <t>Total: 15, Filled: 0, Leaves: 15, SELL</t>
+  </si>
+  <si>
+    <t>NETTED (CYCLEID: 6, 5 SELL)</t>
+  </si>
+  <si>
+    <t>CalcCycle15</t>
+  </si>
+  <si>
+    <t>NETTING (CYCLEID: 7, 10 BUY, OCRR 15-&gt;5 SELL)</t>
+  </si>
+  <si>
+    <t>CalcCycle16</t>
+  </si>
+  <si>
+    <t>Total: 15, Filled: 14, Leaves: 1, SELL</t>
+  </si>
+  <si>
+    <t>NETTING (CYCLEID: 7, 10 BUY, CXL 1 SELL)</t>
+  </si>
+  <si>
+    <t>CalcCycle17</t>
+  </si>
+  <si>
+    <t>Total: 15, Filled: 14, Leaves: 1, SELL, DONE</t>
+  </si>
+  <si>
+    <t>NETTING (CYCLEID: 7, 10 BUY, NOS 9 BUY)</t>
+  </si>
+  <si>
+    <t>CalcCycle18</t>
+  </si>
+  <si>
+    <t>Total: 9, Filled: 0, Leaves: 9, BUY</t>
+  </si>
+  <si>
+    <t>Total: 15, Filled: 14, Leaves: 1, SELL, DONE
+Total: 9, Filled: 0, Leaves: 9, BUY</t>
+  </si>
+  <si>
+    <t>NETTED (CYCLEID: 7, 10 BUY)</t>
+  </si>
+  <si>
+    <t>Target Qty</t>
+  </si>
+  <si>
+    <t>12 S</t>
+  </si>
+  <si>
+    <t>Total: 15, Filled: 3, Sell</t>
+  </si>
+  <si>
+    <t>12 Sell</t>
+  </si>
+  <si>
+    <t>Start State</t>
+  </si>
+  <si>
+    <t>Calc Cycle</t>
+  </si>
+  <si>
+    <t>Action Outcome</t>
+  </si>
+  <si>
+    <t>10 B</t>
+  </si>
+  <si>
+    <t>2 S</t>
+  </si>
+  <si>
+    <t>Tgt Qty Sign</t>
+  </si>
+  <si>
+    <t>ParentQty</t>
+  </si>
+  <si>
+    <t>Action to Talon</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Total: 15, Filled: 12, Sell</t>
+  </si>
+  <si>
+    <t>15 -&gt; 5, 3 Filled</t>
+  </si>
+  <si>
+    <t>Want to sell 2</t>
+  </si>
+  <si>
+    <t>But sold 9</t>
+  </si>
+  <si>
+    <t>7 B</t>
+  </si>
+  <si>
+    <t>15 -&gt; 0, 12 Filled</t>
+  </si>
+  <si>
+    <t>15 B</t>
+  </si>
+  <si>
+    <t>3 B</t>
+  </si>
+  <si>
+    <t>15 -&gt; 0, 3 Filled</t>
+  </si>
+  <si>
+    <t>Want to buy 3</t>
+  </si>
+  <si>
+    <t>Accept but PF</t>
+  </si>
+  <si>
+    <t>15 -&gt; 0, 6 Filled</t>
+  </si>
+  <si>
+    <t>But sold 3</t>
+  </si>
+  <si>
+    <t>Total: 0, Filled: 6, Sell</t>
+  </si>
+  <si>
+    <t>6 B</t>
+  </si>
+  <si>
+    <t>NOS 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -614,6 +893,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -716,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,22 +1042,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,49 +1378,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271B108B-7D08-C040-8BDD-8C5EAC341764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3944A8-0D59-1340-9BC4-67E8BD852E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:P16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:16">
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="5:16" ht="51">
+    <row r="4" spans="5:16" ht="47.25">
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1547,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="15" spans="5:16" ht="51">
+    <row r="15" spans="5:16" ht="47.25">
       <c r="G15">
         <v>5</v>
       </c>
@@ -1286,43 +1579,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A460D984-8A19-6C45-982C-E594430B8835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="6" max="6" width="25" style="4" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="9" width="20.1640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="7" max="8" width="10.875" style="5"/>
+    <col min="9" max="9" width="20.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="5"/>
     <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="5"/>
+    <col min="13" max="13" width="10.875" style="5"/>
     <col min="14" max="14" width="13" style="5" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="5"/>
-    <col min="17" max="17" width="45.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="6"/>
-    <col min="19" max="19" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="5"/>
+    <col min="17" max="17" width="45.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="6"/>
+    <col min="19" max="19" width="51.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:19" ht="22" thickBot="1"/>
-    <row r="2" spans="6:19" ht="22" thickBot="1">
-      <c r="I2" s="20" t="s">
+    <row r="1" spans="6:19" ht="21.75" thickBot="1"/>
+    <row r="2" spans="6:19" ht="21.75" thickBot="1">
+      <c r="I2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="L2" s="20" t="s">
+      <c r="J2" s="25"/>
+      <c r="L2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="6:19" ht="155" thickBot="1">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="6:19" ht="147.75" thickBot="1">
       <c r="F3" s="15" t="s">
         <v>44</v>
       </c>
@@ -1727,7 +2020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="6:19" ht="66">
+    <row r="36" spans="6:19" ht="63">
       <c r="F36" s="4">
         <v>-5</v>
       </c>
@@ -1768,7 +2061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="6:19" ht="44">
+    <row r="39" spans="6:19" ht="42">
       <c r="F39" s="4">
         <v>20</v>
       </c>
@@ -1814,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:19" ht="44">
+    <row r="42" spans="6:19" ht="42">
       <c r="F42" s="4">
         <v>17</v>
       </c>
@@ -1870,43 +2163,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC3928A-0B6C-A547-AD52-0E0AA40F85B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:S38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="92" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="6" max="6" width="25" style="4" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="9" width="20.1640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="7" max="8" width="10.875" style="5"/>
+    <col min="9" max="9" width="20.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="5"/>
     <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="5"/>
+    <col min="13" max="13" width="10.875" style="5"/>
     <col min="14" max="14" width="13" style="5" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="5"/>
-    <col min="17" max="17" width="45.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="6"/>
-    <col min="19" max="19" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.875" style="5"/>
+    <col min="17" max="17" width="45.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="6"/>
+    <col min="19" max="19" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:19" ht="22" thickBot="1"/>
-    <row r="2" spans="6:19" ht="22" thickBot="1">
-      <c r="I2" s="20" t="s">
+    <row r="1" spans="6:19" ht="21.75" thickBot="1"/>
+    <row r="2" spans="6:19" ht="21.75" thickBot="1">
+      <c r="I2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="L2" s="20" t="s">
+      <c r="J2" s="25"/>
+      <c r="L2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="6:19" ht="155" thickBot="1">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="6:19" ht="147.75" thickBot="1">
       <c r="F3" s="15" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:19" ht="44">
+    <row r="17" spans="6:19" ht="42">
       <c r="F17" s="4">
         <v>8</v>
       </c>
@@ -2165,7 +2458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="6:19" ht="88">
+    <row r="20" spans="6:19" ht="84">
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
@@ -2239,7 +2532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="6:19" ht="88">
+    <row r="25" spans="6:19" ht="63">
       <c r="F25" s="4">
         <v>6</v>
       </c>
@@ -2285,7 +2578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="6:19" ht="88">
+    <row r="28" spans="6:19" ht="84">
       <c r="J28" s="7" t="s">
         <v>18</v>
       </c>
@@ -2313,7 +2606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="6:19" ht="66">
+    <row r="31" spans="6:19" ht="63">
       <c r="F31" s="4">
         <v>-5</v>
       </c>
@@ -2354,7 +2647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:19" ht="44">
+    <row r="34" spans="6:19" ht="42">
       <c r="F34" s="4">
         <v>20</v>
       </c>
@@ -2400,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:19" ht="44">
+    <row r="37" spans="6:19" ht="42">
       <c r="F37" s="4">
         <v>17</v>
       </c>
@@ -2459,27 +2752,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853E0F3B-D2AD-FE41-A2AF-A5018A25BE6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="55.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="34.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.83203125" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.875" customWidth="1"/>
+    <col min="16" max="16" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="119">
+    <row r="2" spans="2:20" ht="110.25">
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
@@ -2514,7 +2807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="102">
+    <row r="4" spans="2:20" ht="94.5">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2555,7 +2848,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="102">
+    <row r="5" spans="2:20" ht="94.5">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2593,7 +2886,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="187">
+    <row r="6" spans="2:20" ht="173.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2625,7 +2918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="34">
+    <row r="7" spans="2:20" ht="31.5">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2635,7 +2928,7 @@
       <c r="D7" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>104</v>
       </c>
       <c r="F7">
@@ -2650,14 +2943,14 @@
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="19" t="s">
         <v>90</v>
       </c>
       <c r="L7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="153">
+    <row r="8" spans="2:20" ht="141.75">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2686,7 +2979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="170">
+    <row r="9" spans="2:20" ht="141.75">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2715,7 +3008,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="85">
+    <row r="10" spans="2:20" ht="78.75">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2744,7 +3037,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="51">
+    <row r="11" spans="2:20" ht="31.5">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2763,7 +3056,7 @@
       <c r="H11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="20" t="s">
         <v>104</v>
       </c>
       <c r="J11">
@@ -2776,7 +3069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="85">
+    <row r="12" spans="2:20" ht="78.75">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2786,7 +3079,7 @@
       <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="20" t="s">
         <v>104</v>
       </c>
       <c r="F12">
@@ -2798,7 +3091,7 @@
       <c r="H12" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="20" t="s">
         <v>104</v>
       </c>
       <c r="J12">
@@ -2808,7 +3101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="136">
+    <row r="13" spans="2:20" ht="126">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2827,7 +3120,7 @@
       <c r="H13" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="20" t="s">
         <v>104</v>
       </c>
       <c r="J13">
@@ -2837,7 +3130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="85">
+    <row r="14" spans="2:20" ht="77.25">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2847,7 +3140,7 @@
       <c r="D14" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>104</v>
       </c>
       <c r="F14">
@@ -2860,7 +3153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="51">
+    <row r="15" spans="2:20" ht="47.25">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2870,7 +3163,7 @@
       <c r="D15" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>105</v>
       </c>
       <c r="F15">
@@ -2883,7 +3176,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="51">
+    <row r="16" spans="2:20" ht="47.25">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2893,7 +3186,7 @@
       <c r="D16" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>104</v>
       </c>
       <c r="F16">
@@ -2905,11 +3198,11 @@
       <c r="H16" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="85">
+    <row r="17" spans="2:9" ht="78.75">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2919,7 +3212,7 @@
       <c r="D17" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="20" t="s">
         <v>104</v>
       </c>
       <c r="F17">
@@ -2931,11 +3224,11 @@
       <c r="H17" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="102">
+    <row r="18" spans="2:9" ht="94.5">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2955,7 +3248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="51">
+    <row r="19" spans="2:9" ht="47.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2975,7 +3268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="102">
+    <row r="20" spans="2:9" ht="94.5">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2998,7 +3291,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="17">
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>18</v>
       </c>
@@ -3007,21 +3300,1132 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E2:E19" xr:uid="{CCFA7979-1F1C-2545-A291-1C2B50FA6211}"/>
+  <autoFilter ref="E2:E19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6047A50B-1543-E946-81C1-B2405DF43ABE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:U71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.875" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:21">
+      <c r="E2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="H2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="K2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="N2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
+      <c r="C5" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21">
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="E18" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="H18" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="K18" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="N18" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="31.5">
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="E33" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="H33" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="K33" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="N33" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" t="s">
+        <v>161</v>
+      </c>
+      <c r="N35" t="s">
+        <v>140</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" t="s">
+        <v>162</v>
+      </c>
+      <c r="N36" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N37" t="s">
+        <v>146</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" t="s">
+        <v>180</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N38" t="s">
+        <v>180</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K42" t="s">
+        <v>177</v>
+      </c>
+      <c r="N42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="E47" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="H47" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="K47" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="L47" s="27"/>
+      <c r="N47" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O47" s="27"/>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="C49" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>140</v>
+      </c>
+      <c r="L49" t="s">
+        <v>155</v>
+      </c>
+      <c r="N49" t="s">
+        <v>140</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>151</v>
+      </c>
+      <c r="O50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K51" t="s">
+        <v>146</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="N51" t="s">
+        <v>146</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K52" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="N52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
+      <c r="C54" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" t="s">
+        <v>45</v>
+      </c>
+      <c r="N54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" t="s">
+        <v>186</v>
+      </c>
+      <c r="N56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15">
+      <c r="E61" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="H61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="3:15">
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+    </row>
+    <row r="63" spans="3:15">
+      <c r="C63" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="C64" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15">
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66" spans="3:15" ht="31.5">
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H66" t="s">
+        <v>180</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L66" s="21"/>
+      <c r="O66" s="21"/>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" spans="3:15">
+      <c r="C68" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15">
+      <c r="E70" t="s">
+        <v>192</v>
+      </c>
+      <c r="H70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15">
+      <c r="N71" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8">
+      <c r="D1" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="3" spans="4:8">
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8">
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8">
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="G6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2">
+        <v>-12</v>
+      </c>
+      <c r="J2">
+        <v>-15</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5">
+        <f>-2 - (-9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9">
+        <v>-15</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>-15</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> 3 - (-3)</f>
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>